--- a/工作.xlsx
+++ b/工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="专题" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="494">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3119,6 +3119,23 @@
 2、社刊列表增加提示“没有更多了”
 3、组队作业回复表情处理
 4、触屏端帖子内页@功能连接地址的替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查6月16号版本，修复补充问题
+2、讨论社团商城等问题
+3、例会、6月30日版本讨论会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新名片窗装饰功能开发
+2、用户头衔卡功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查6月16号版本并修复bug
+2、开始开发30号版本功能
+3、请假半天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6462,8 +6479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7277,6 +7294,9 @@
       <c r="E30" s="65">
         <v>42167</v>
       </c>
+      <c r="F30" s="14" t="s">
+        <v>491</v>
+      </c>
       <c r="G30" s="65">
         <v>42230</v>
       </c>
@@ -7300,6 +7320,9 @@
       <c r="E31" s="63">
         <v>42170</v>
       </c>
+      <c r="F31" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="G31" s="63">
         <v>42233</v>
       </c>
@@ -7319,6 +7342,9 @@
       </c>
       <c r="E32" s="63">
         <v>42171</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="G32" s="63">
         <v>42234</v>
@@ -7935,8 +7961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="专题" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="497">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3136,6 +3136,19 @@
     <t>1、走查6月16号版本并修复bug
 2、开始开发30号版本功能
 3、请假半天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面开发
+2、头衔卡功能开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6479,8 +6492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7369,6 +7382,9 @@
       <c r="E33" s="63">
         <v>42172</v>
       </c>
+      <c r="F33" s="10" t="s">
+        <v>496</v>
+      </c>
       <c r="G33" s="63">
         <v>42235</v>
       </c>
@@ -7392,6 +7408,9 @@
       <c r="E34" s="63">
         <v>42173</v>
       </c>
+      <c r="F34" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="G34" s="63">
         <v>42236</v>
       </c>
@@ -7414,6 +7433,9 @@
       </c>
       <c r="E35" s="65">
         <v>42174</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="G35" s="65">
         <v>42237</v>
@@ -7961,7 +7983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="438" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="专题" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="508">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3019,10 +3019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input::-ms-clear {display: none; }屏蔽IE10、IE11文本框自带的清除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、我的社团中导航重构
 2、触屏端个人主页我的社团页面开发
 3、前端培训及例会</t>
@@ -3046,7 +3042,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>console.log(self.get(0).tagName);获取元素标签</t>
+    <t>1、个人主页走查，修复细节问题
+2、触屏首页左右栏导航改写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、个人主页我的社刊/他的社刊，我的社团/他的社团，关注/粉丝等补充空值页面
+2、走查并处理2号所发版本bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查个人主页，补充关注及社团页面的私密社团标志
+2、社团晨会、个人主页确认会、社团组队总结会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查个人主页，处理空值页适配问题，处理未登录时的情况
+2、讨论通知页面的优化开发，这部分移至下版本开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、处理个人主页适配bug
+2、开发6月19日组队通知功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、开发专题列表页面
+2、帖子详情页增加专题入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、组队通知列表页面的重构，组队通知流程联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建组队、创建社刊、创建社团页面样式重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建组队样式改写
+2、社刊列表增加提示“没有更多了”
+3、组队作业回复表情处理
+4、触屏端帖子内页@功能连接地址的替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查6月16号版本，修复补充问题
+2、讨论社团商城等问题
+3、例会、6月30日版本讨论会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新名片窗装饰功能开发
+2、用户头衔卡功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查6月16号版本并修复bug
+2、开始开发30号版本功能
+3、请假半天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团商城相关页面开发
+2、头衔卡功能开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3057,41 +3128,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、个人主页走查，修复细节问题
-2、触屏首页左右栏导航改写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、个人主页我的社刊/他的社刊，我的社团/他的社团，关注/粉丝等补充空值页面
-2、走查并处理2号所发版本bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、走查个人主页，补充关注及社团页面的私密社团标志
-2、社团晨会、个人主页确认会、社团组队总结会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、走查个人主页，处理空值页适配问题，处理未登录时的情况
-2、讨论通知页面的优化开发，这部分移至下版本开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、处理个人主页适配bug
-2、开发6月19日组队通知功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、开发专题列表页面
-2、帖子详情页增加专题入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、组队通知列表页面的重构，组队通知流程联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、创建组队、创建社刊、创建社团页面样式重构</t>
+    <t>1、pc帖子详情页右侧梳理，强化互动操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word-break:break-all;word-wrap:break-word;强制换行
+text-overflow: ellipsis;white-space: nowrap;强制不换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、pc帖子详情页右侧梳理。
+2、社团商城调整
+3、pc组队作业详情页面快捷操作处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、走查14号版本，修复相关bug
+2、编辑器上传附件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复14号版本相关bug
+2、编辑器上传附件修改
+3、编辑器兼容问题处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//判断ie版本   
+function addUrlChangeListener(url) {
+        if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>browser.ie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>browser.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 9) {
+            url.onpropertychange = function () {
+                alert('ie8及以下');
+                createPreviewVideo(this.value);
+            }
+        }
+        else {
+            url.addEventListener("input", function () {
+                alert('ie8以上或不是ie');
+                createPreviewVideo(this.value);
+            }, false);
+        }
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>console.log(self.get(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.tagName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);获取元素标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input::-ms-clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {display: none; }屏蔽IE10、IE11文本框自带的清除按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编辑器功能及兼容测试优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、编辑器功能测试优化
+2、修复14号版本的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、社团帖子内页及组队作业详情页右侧快捷操作代码的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成触屏端通知页面开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成触屏端通知页面联调
+2、组队页面二维码、分享、我要反馈等修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3108,47 +3302,6 @@
         };
     });
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、创建组队样式改写
-2、社刊列表增加提示“没有更多了”
-3、组队作业回复表情处理
-4、触屏端帖子内页@功能连接地址的替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、走查6月16号版本，修复补充问题
-2、讨论社团商城等问题
-3、例会、6月30日版本讨论会议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、新名片窗装饰功能开发
-2、用户头衔卡功能开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、走查6月16号版本并修复bug
-2、开始开发30号版本功能
-3、请假半天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、社团商城相关页面联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、社团商城相关页面联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、社团商城相关页面开发
-2、头衔卡功能开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3447,7 +3600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3645,6 +3798,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6492,20 +6651,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="31"/>
-    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10" style="10" customWidth="1"/>
     <col min="5" max="5" width="9" style="31"/>
-    <col min="6" max="6" width="66.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
+    <col min="8" max="8" width="42.875" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.25" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="10"/>
     <col min="11" max="11" width="9.25" style="31" bestFit="1" customWidth="1"/>
@@ -6612,6 +6771,9 @@
       <c r="G4" s="63">
         <v>42194</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>497</v>
+      </c>
       <c r="I4" s="63">
         <v>42257</v>
       </c>
@@ -6636,6 +6798,9 @@
       <c r="G5" s="65">
         <v>42195</v>
       </c>
+      <c r="H5" s="14" t="s">
+        <v>498</v>
+      </c>
       <c r="I5" s="65">
         <v>42258</v>
       </c>
@@ -6662,6 +6827,9 @@
       <c r="G6" s="63">
         <v>42198</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>502</v>
+      </c>
       <c r="I6" s="63">
         <v>42261</v>
       </c>
@@ -6685,6 +6853,9 @@
       <c r="G7" s="63">
         <v>42199</v>
       </c>
+      <c r="H7" s="10" t="s">
+        <v>503</v>
+      </c>
       <c r="I7" s="63">
         <v>42262</v>
       </c>
@@ -6740,6 +6911,9 @@
       <c r="G9" s="63">
         <v>42201</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="I9" s="63">
         <v>42264</v>
       </c>
@@ -6769,6 +6943,9 @@
       <c r="G10" s="65">
         <v>42202</v>
       </c>
+      <c r="H10" s="14" t="s">
+        <v>505</v>
+      </c>
       <c r="I10" s="65">
         <v>42265</v>
       </c>
@@ -6798,6 +6975,9 @@
       <c r="G11" s="63">
         <v>42205</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="I11" s="63">
         <v>42268</v>
       </c>
@@ -6906,7 +7086,7 @@
         <v>42146</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G15" s="65">
         <v>42209</v>
@@ -6935,7 +7115,7 @@
         <v>42149</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G16" s="63">
         <v>42212</v>
@@ -6964,7 +7144,7 @@
         <v>42150</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G17" s="63">
         <v>42213</v>
@@ -6993,7 +7173,7 @@
         <v>42151</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G18" s="63">
         <v>42214</v>
@@ -7022,7 +7202,7 @@
         <v>42152</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G19" s="63">
         <v>42215</v>
@@ -7074,7 +7254,7 @@
         <v>42156</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G21" s="63">
         <v>42219</v>
@@ -7103,7 +7283,7 @@
         <v>42157</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G22" s="63">
         <v>42220</v>
@@ -7129,7 +7309,7 @@
         <v>42158</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G23" s="63">
         <v>42221</v>
@@ -7155,7 +7335,7 @@
         <v>42159</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G24" s="63">
         <v>42222</v>
@@ -7181,7 +7361,7 @@
         <v>42160</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G25" s="65">
         <v>42223</v>
@@ -7204,7 +7384,7 @@
         <v>42163</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G26" s="63">
         <v>42226</v>
@@ -7230,7 +7410,7 @@
         <v>42164</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G27" s="63">
         <v>42227</v>
@@ -7242,7 +7422,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="30">
         <v>42046</v>
       </c>
@@ -7256,7 +7436,7 @@
         <v>42165</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G28" s="63">
         <v>42228</v>
@@ -7268,7 +7448,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A29" s="30">
         <v>42047</v>
       </c>
@@ -7279,10 +7459,10 @@
         <v>441</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G29" s="63">
         <v>42229</v>
@@ -7294,7 +7474,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="14" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A30" s="64">
         <v>42048</v>
       </c>
@@ -7308,7 +7488,7 @@
         <v>42167</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G30" s="65">
         <v>42230</v>
@@ -7320,7 +7500,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30">
         <v>42051</v>
       </c>
@@ -7334,7 +7514,7 @@
         <v>42170</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G31" s="63">
         <v>42233</v>
@@ -7357,7 +7537,7 @@
         <v>42171</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G32" s="63">
         <v>42234</v>
@@ -7383,7 +7563,7 @@
         <v>42172</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G33" s="63">
         <v>42235</v>
@@ -7409,7 +7589,7 @@
         <v>42173</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G34" s="63">
         <v>42236</v>
@@ -7421,7 +7601,7 @@
         <v>42355</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="14" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A35" s="64">
         <v>42055</v>
       </c>
@@ -7435,7 +7615,7 @@
         <v>42174</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G35" s="65">
         <v>42237</v>
@@ -7467,7 +7647,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="30">
         <v>42059</v>
       </c>
@@ -7490,7 +7670,7 @@
         <v>42360</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A38" s="30">
         <v>42060</v>
       </c>
@@ -7556,7 +7736,7 @@
         <v>42363</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="C41" s="30">
         <v>42121</v>
       </c>
@@ -7573,13 +7753,16 @@
         <v>42366</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="C42" s="30">
         <v>42122</v>
       </c>
       <c r="E42" s="63">
         <v>42185</v>
       </c>
+      <c r="F42" s="10" t="s">
+        <v>494</v>
+      </c>
       <c r="G42" s="63">
         <v>42248</v>
       </c>
@@ -7587,12 +7770,15 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
       <c r="C43" s="30">
         <v>42123</v>
       </c>
       <c r="E43" s="63">
         <v>42186</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>496</v>
       </c>
       <c r="G43" s="63">
         <v>42249</v>
@@ -7981,10 +8167,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8011,31 +8197,39 @@
     </row>
     <row r="4" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="56.25" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
-        <v>472</v>
+      <c r="A6" s="67" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="66" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="146.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="66" t="s">
-        <v>488</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="68" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="168.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="66" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="510">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3132,11 +3132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word-break:break-all;word-wrap:break-word;强制换行
-text-overflow: ellipsis;white-space: nowrap;强制不换行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、pc帖子详情页右侧梳理。
 2、社团商城调整
 3、pc组队作业详情页面快捷操作处理</t>
@@ -3302,6 +3297,28 @@
         };
     });
 }</t>
+  </si>
+  <si>
+    <t>word-break:break-all;word-wrap:break-word;强制换行
+text-overflow: ellipsis;white-space: nowrap;强制不换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//触屏端计算滑动距离
+$parent.on('touchstart', function (event) {
+    startX = event.touches[0].clientX;
+});
+$parent.on('touchend', function (event) {
+    // event.preventDefault();
+    var touches = event.changedTouches[0],
+    endTx = touches.clientX;
+});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRetina: function () {
+            return window.devicePixelRatio &amp;&amp; window.devicePixelRatio &gt;= 1.5;
+        },</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3803,8 +3820,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6772,7 +6789,7 @@
         <v>42194</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I4" s="63">
         <v>42257</v>
@@ -6799,7 +6816,7 @@
         <v>42195</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I5" s="65">
         <v>42258</v>
@@ -6828,7 +6845,7 @@
         <v>42198</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I6" s="63">
         <v>42261</v>
@@ -6854,7 +6871,7 @@
         <v>42199</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I7" s="63">
         <v>42262</v>
@@ -6912,7 +6929,7 @@
         <v>42201</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I9" s="63">
         <v>42264</v>
@@ -6944,7 +6961,7 @@
         <v>42202</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I10" s="65">
         <v>42265</v>
@@ -6976,7 +6993,7 @@
         <v>42205</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I11" s="63">
         <v>42268</v>
@@ -7778,7 +7795,7 @@
         <v>42186</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G43" s="63">
         <v>42249</v>
@@ -8167,10 +8184,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8197,7 +8214,7 @@
     </row>
     <row r="4" spans="1:1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="66" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8207,29 +8224,36 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="66" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="175.5" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A8" s="68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A9" s="66" t="s">
-        <v>499</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="66" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="66" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="514">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3319,6 +3319,36 @@
     <t>isRetina: function () {
             return window.devicePixelRatio &amp;&amp; window.devicePixelRatio &gt;= 1.5;
         },</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">editor = UE.getEditor($('textarea[name="txtUserReply"]')[0], {
+                toolbars: [
+                    ['fontfamily', 'fontsize', 'hjemotion','undo', 'redo', '|', 'forecolor', 'backcolor', 'bold', 'underline', 'strikethrough', '|',
+                        'link', 'unlink', 'uploadimage', 'uploadimages', 'hjaudio', 'hjvideo', 'record', '|', 'removeformat', 'formatmatch',
+                        'source'
+                    ]
+                ]
+                ,initialStyle: 'body{font-size:14px}'
+            });
+            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function autoSubmit(e) {
+                if ((e.ctrlKey||e.metaKey) &amp;&amp; e.keyCode == 13) {
+                    $("#btnReply").click();
+                }
+            }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、单社团banner更换背景功能bug研究
+2、pc端及触屏端各社刊相关页面的精品社刊标记补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社刊封面立体感box-shadow: 3px 0 2px #eee, 4px 0 5px rgba(125, 125, 125, 0.3) inset;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6668,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7382,6 +7412,9 @@
       </c>
       <c r="G25" s="65">
         <v>42223</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="I25" s="65">
         <v>42286</v>
@@ -8184,10 +8217,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8252,6 +8285,21 @@
         <v>509</v>
       </c>
     </row>
+    <row r="12" spans="1:1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A12" s="66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="66" t="s">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
